--- a/mitochondria distance/020425_mito_OA/3K_OA_analysis_by_image.xlsx
+++ b/mitochondria distance/020425_mito_OA/3K_OA_analysis_by_image.xlsx
@@ -511,10 +511,10 @@
         <v>0.04338702061801585</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0922076857946631</v>
+        <v>0.1405091081706521</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06334590136846374</v>
+        <v>0.06640273271685224</v>
       </c>
     </row>
     <row r="6">
@@ -527,10 +527,10 @@
         <v>0.09909987141020146</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08559810233819044</v>
+        <v>0.04538860103626943</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03121680150363651</v>
+        <v>0.03102818900831474</v>
       </c>
     </row>
     <row r="7">
@@ -543,10 +543,10 @@
         <v>0.02300508693341432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03746037844587456</v>
+        <v>0.05316704955694125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02824481909975389</v>
+        <v>0.02829536165664103</v>
       </c>
     </row>
     <row r="8">
@@ -559,10 +559,10 @@
         <v>0.1115102040816326</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06764722084503939</v>
+        <v>0.05594338720474323</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02563431859795972</v>
+        <v>0.02473897555582852</v>
       </c>
     </row>
     <row r="9">
@@ -575,10 +575,10 @@
         <v>0.05203364842598213</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0596996960852165</v>
+        <v>0.04836261114725656</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0168052792052563</v>
+        <v>0.02388607561021354</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         <v>0.01280653950953678</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0595609996711608</v>
+        <v>0.08433000685609812</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01140751919747881</v>
+        <v>0.01551966435161612</v>
       </c>
     </row>
     <row r="11">
@@ -607,10 +607,10 @@
         <v>0.05468576092602211</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06211636711140515</v>
+        <v>0.07662268504822199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0292420206551708</v>
+        <v>0.02901555604461793</v>
       </c>
     </row>
     <row r="12">
@@ -623,10 +623,10 @@
         <v>0.0573568281938326</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07304568944303175</v>
+        <v>0.02417066249143752</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03706538377432757</v>
+        <v>0.04982490735389113</v>
       </c>
     </row>
   </sheetData>
